--- a/biology/Botanique/Adam_Messerich/Adam_Messerich.xlsx
+++ b/biology/Botanique/Adam_Messerich/Adam_Messerich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Adam Messerich’ est un cultivar de rosier Bourbon obtenu en 1920 par le rosiériste allemand Peter Lambert (1859-1939). Il est issu d'un semis ‘Frau Oberhofgärtner Singer’ x pollen (‘Louise Odier’ (rosier Bourbon, Margottin 1851) x ‘Louis-Philippe’ (rosier de Chine, Guérin 1834))[1].
+‘Adam Messerich’ est un cultivar de rosier Bourbon obtenu en 1920 par le rosiériste allemand Peter Lambert (1859-1939). Il est issu d'un semis ‘Frau Oberhofgärtner Singer’ x pollen (‘Louise Odier’ (rosier Bourbon, Margottin 1851) x ‘Louis-Philippe’ (rosier de Chine, Guérin 1834)).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">‘Adam Messerich’ est un arbuste buissonnant au feuillage vert clair pouvant s'élever à 170 cm[2], parfois plus[3]. Ses fleurs semi-doubles sont larges et d'une belle couleur rose soutenu et exhalent un parfum fruité[4]. Il est très florifère et remontant[5].
-Sa zone de rusticité est de 5b à 10b. Il peut être conduit aussi en grimpant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">‘Adam Messerich’ est un arbuste buissonnant au feuillage vert clair pouvant s'élever à 170 cm, parfois plus. Ses fleurs semi-doubles sont larges et d'une belle couleur rose soutenu et exhalent un parfum fruité. Il est très florifère et remontant.
+Sa zone de rusticité est de 5b à 10b. Il peut être conduit aussi en grimpant.
 </t>
         </is>
       </c>
